--- a/results/mp/logistic/corona/confidence/126/masking-0.1/avg_0.004_scores.xlsx
+++ b/results/mp/logistic/corona/confidence/126/masking-0.1/avg_0.004_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="54">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,15 +40,15 @@
     <t>name</t>
   </si>
   <si>
+    <t>crude</t>
+  </si>
+  <si>
+    <t>fraud</t>
+  </si>
+  <si>
     <t>crisis</t>
   </si>
   <si>
-    <t>crude</t>
-  </si>
-  <si>
-    <t>fraud</t>
-  </si>
-  <si>
     <t>die</t>
   </si>
   <si>
@@ -58,15 +58,15 @@
     <t>drop</t>
   </si>
   <si>
+    <t>sc</t>
+  </si>
+  <si>
     <t>panic</t>
   </si>
   <si>
     <t>fears</t>
   </si>
   <si>
-    <t>sc</t>
-  </si>
-  <si>
     <t>low</t>
   </si>
   <si>
@@ -76,103 +76,100 @@
     <t>no</t>
   </si>
   <si>
+    <t>empty</t>
+  </si>
+  <si>
     <t>stop</t>
   </si>
   <si>
     <t>demand</t>
   </si>
   <si>
+    <t>of</t>
+  </si>
+  <si>
     <t>co</t>
   </si>
   <si>
-    <t>.</t>
-  </si>
-  <si>
-    <t>the</t>
-  </si>
-  <si>
     <t>negative</t>
   </si>
   <si>
+    <t>love</t>
+  </si>
+  <si>
+    <t>free</t>
+  </si>
+  <si>
     <t>best</t>
   </si>
   <si>
-    <t>love</t>
-  </si>
-  <si>
-    <t>free</t>
-  </si>
-  <si>
     <t>great</t>
   </si>
   <si>
     <t>hand</t>
   </si>
   <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>special</t>
+  </si>
+  <si>
     <t>support</t>
   </si>
   <si>
-    <t>confidence</t>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>join</t>
+  </si>
+  <si>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>won</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>safe</t>
   </si>
   <si>
     <t>interesting</t>
   </si>
   <si>
-    <t>heroes</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>special</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>positive</t>
+    <t>fresh</t>
   </si>
   <si>
     <t>better</t>
   </si>
   <si>
-    <t>join</t>
-  </si>
-  <si>
-    <t>won</t>
-  </si>
-  <si>
     <t>gt</t>
   </si>
   <si>
-    <t>fresh</t>
-  </si>
-  <si>
     <t>like</t>
   </si>
   <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>hope</t>
+  </si>
+  <si>
     <t>help</t>
   </si>
   <si>
-    <t>well</t>
-  </si>
-  <si>
     <t>please</t>
   </si>
   <si>
-    <t>hope</t>
+    <t>share</t>
   </si>
   <si>
     <t>relief</t>
-  </si>
-  <si>
-    <t>share</t>
   </si>
   <si>
     <t>care</t>
@@ -536,7 +533,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q31"/>
+  <dimension ref="A1:Q30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -547,7 +544,7 @@
         <v>25</v>
       </c>
       <c r="J1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -605,13 +602,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.8116438356164384</v>
+        <v>0.8529411764705882</v>
       </c>
       <c r="C3">
-        <v>237</v>
+        <v>29</v>
       </c>
       <c r="D3">
-        <v>237</v>
+        <v>29</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -623,19 +620,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>55</v>
+        <v>5</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>26</v>
       </c>
       <c r="K3">
-        <v>0.9491525423728814</v>
+        <v>0.9347826086956522</v>
       </c>
       <c r="L3">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="M3">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -655,13 +652,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.7941176470588235</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="C4">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D4">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -673,19 +670,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>27</v>
       </c>
       <c r="K4">
-        <v>0.9347826086956522</v>
+        <v>0.9166666666666666</v>
       </c>
       <c r="L4">
-        <v>43</v>
+        <v>110</v>
       </c>
       <c r="M4">
-        <v>43</v>
+        <v>110</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -697,7 +694,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -705,13 +702,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.7777777777777778</v>
+        <v>0.8082191780821918</v>
       </c>
       <c r="C5">
-        <v>28</v>
+        <v>236</v>
       </c>
       <c r="D5">
-        <v>28</v>
+        <v>236</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -723,19 +720,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>8</v>
+        <v>56</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>28</v>
       </c>
       <c r="K5">
-        <v>0.9083333333333333</v>
+        <v>0.9152542372881356</v>
       </c>
       <c r="L5">
-        <v>109</v>
+        <v>54</v>
       </c>
       <c r="M5">
-        <v>109</v>
+        <v>54</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -747,7 +744,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -755,13 +752,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.7297297297297297</v>
+        <v>0.7837837837837838</v>
       </c>
       <c r="C6">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D6">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -773,19 +770,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>29</v>
       </c>
       <c r="K6">
-        <v>0.8571428571428571</v>
+        <v>0.8482142857142857</v>
       </c>
       <c r="L6">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="M6">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -797,7 +794,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -829,13 +826,13 @@
         <v>30</v>
       </c>
       <c r="K7">
-        <v>0.8407310704960835</v>
+        <v>0.8328981723237598</v>
       </c>
       <c r="L7">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="M7">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -847,7 +844,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>61</v>
+        <v>64</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -879,13 +876,13 @@
         <v>31</v>
       </c>
       <c r="K8">
-        <v>0.8113207547169812</v>
+        <v>0.8170731707317073</v>
       </c>
       <c r="L8">
-        <v>86</v>
+        <v>67</v>
       </c>
       <c r="M8">
-        <v>86</v>
+        <v>67</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -897,7 +894,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -905,13 +902,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.5465116279069767</v>
+        <v>0.5343915343915344</v>
       </c>
       <c r="C9">
-        <v>282</v>
+        <v>101</v>
       </c>
       <c r="D9">
-        <v>282</v>
+        <v>101</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -923,7 +920,7 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>234</v>
+        <v>88</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>32</v>
@@ -955,13 +952,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.5098039215686274</v>
+        <v>0.5290697674418605</v>
       </c>
       <c r="C10">
-        <v>26</v>
+        <v>273</v>
       </c>
       <c r="D10">
-        <v>26</v>
+        <v>273</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -973,19 +970,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>25</v>
+        <v>243</v>
       </c>
       <c r="J10" s="1" t="s">
         <v>33</v>
       </c>
       <c r="K10">
-        <v>0.7878787878787878</v>
+        <v>0.8018867924528302</v>
       </c>
       <c r="L10">
-        <v>26</v>
+        <v>85</v>
       </c>
       <c r="M10">
-        <v>26</v>
+        <v>85</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -997,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>7</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1005,13 +1002,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.4973544973544973</v>
+        <v>0.5098039215686274</v>
       </c>
       <c r="C11">
-        <v>94</v>
+        <v>26</v>
       </c>
       <c r="D11">
-        <v>94</v>
+        <v>26</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1023,19 +1020,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>95</v>
+        <v>25</v>
       </c>
       <c r="J11" s="1" t="s">
         <v>34</v>
       </c>
       <c r="K11">
-        <v>0.7872340425531915</v>
+        <v>0.796875</v>
       </c>
       <c r="L11">
-        <v>37</v>
+        <v>102</v>
       </c>
       <c r="M11">
-        <v>37</v>
+        <v>102</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1047,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>10</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1055,13 +1052,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.4765100671140939</v>
+        <v>0.4899328859060403</v>
       </c>
       <c r="C12">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D12">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1073,19 +1070,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="J12" s="1" t="s">
         <v>35</v>
       </c>
       <c r="K12">
-        <v>0.7804878048780488</v>
+        <v>0.7906976744186046</v>
       </c>
       <c r="L12">
-        <v>64</v>
+        <v>34</v>
       </c>
       <c r="M12">
-        <v>64</v>
+        <v>34</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1097,7 +1094,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>18</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1105,13 +1102,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.4266666666666667</v>
+        <v>0.4133333333333333</v>
       </c>
       <c r="C13">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D13">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1123,19 +1120,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J13" s="1" t="s">
         <v>36</v>
       </c>
       <c r="K13">
-        <v>0.7777777777777778</v>
+        <v>0.7872340425531915</v>
       </c>
       <c r="L13">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="M13">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1147,7 +1144,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1155,13 +1152,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.4</v>
+        <v>0.3888888888888889</v>
       </c>
       <c r="C14">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="D14">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1173,19 +1170,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="J14" s="1" t="s">
         <v>37</v>
       </c>
       <c r="K14">
-        <v>0.775</v>
+        <v>0.7758620689655172</v>
       </c>
       <c r="L14">
-        <v>124</v>
+        <v>45</v>
       </c>
       <c r="M14">
-        <v>124</v>
+        <v>45</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1197,7 +1194,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>36</v>
+        <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1205,13 +1202,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.25</v>
+        <v>0.2777777777777778</v>
       </c>
       <c r="C15">
-        <v>63</v>
+        <v>25</v>
       </c>
       <c r="D15">
-        <v>63</v>
+        <v>25</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1223,19 +1220,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>189</v>
+        <v>65</v>
       </c>
       <c r="J15" s="1" t="s">
         <v>38</v>
       </c>
       <c r="K15">
-        <v>0.7746478873239436</v>
+        <v>0.7692307692307693</v>
       </c>
       <c r="L15">
-        <v>110</v>
+        <v>30</v>
       </c>
       <c r="M15">
-        <v>110</v>
+        <v>30</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1247,7 +1244,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>32</v>
+        <v>9</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1255,7 +1252,7 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.1662198391420912</v>
+        <v>0.246031746031746</v>
       </c>
       <c r="C16">
         <v>62</v>
@@ -1273,19 +1270,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>311</v>
+        <v>190</v>
       </c>
       <c r="J16" s="1" t="s">
         <v>39</v>
       </c>
       <c r="K16">
-        <v>0.7734375</v>
+        <v>0.76875</v>
       </c>
       <c r="L16">
-        <v>99</v>
+        <v>123</v>
       </c>
       <c r="M16">
-        <v>99</v>
+        <v>123</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1297,7 +1294,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>29</v>
+        <v>37</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1305,37 +1302,37 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.00837898807605543</v>
+        <v>0.128686327077748</v>
       </c>
       <c r="C17">
-        <v>26</v>
+        <v>48</v>
       </c>
       <c r="D17">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="E17">
-        <v>0.13</v>
+        <v>0</v>
       </c>
       <c r="F17">
-        <v>0.87</v>
+        <v>1</v>
       </c>
       <c r="G17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H17">
-        <v>3077</v>
+        <v>325</v>
       </c>
       <c r="J17" s="1" t="s">
         <v>40</v>
       </c>
       <c r="K17">
-        <v>0.7586206896551724</v>
+        <v>0.7676056338028169</v>
       </c>
       <c r="L17">
-        <v>44</v>
+        <v>109</v>
       </c>
       <c r="M17">
-        <v>44</v>
+        <v>109</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1347,7 +1344,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>14</v>
+        <v>33</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1355,37 +1352,37 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.006031363088057901</v>
+        <v>0.01094736842105263</v>
       </c>
       <c r="C18">
+        <v>26</v>
+      </c>
+      <c r="D18">
         <v>30</v>
       </c>
-      <c r="D18">
-        <v>52</v>
-      </c>
       <c r="E18">
-        <v>0.42</v>
+        <v>0.13</v>
       </c>
       <c r="F18">
-        <v>0.5800000000000001</v>
+        <v>0.87</v>
       </c>
       <c r="G18" t="b">
         <v>1</v>
       </c>
       <c r="H18">
-        <v>4944</v>
+        <v>2349</v>
       </c>
       <c r="J18" s="1" t="s">
         <v>41</v>
       </c>
       <c r="K18">
-        <v>0.7301587301587301</v>
+        <v>0.7575757575757576</v>
       </c>
       <c r="L18">
-        <v>46</v>
+        <v>25</v>
       </c>
       <c r="M18">
-        <v>46</v>
+        <v>25</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1397,7 +1394,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>17</v>
+        <v>8</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1405,37 +1402,37 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.005056398288603656</v>
+        <v>0.009990331936835321</v>
       </c>
       <c r="C19">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="D19">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="E19">
-        <v>0.47</v>
+        <v>0.11</v>
       </c>
       <c r="F19">
-        <v>0.53</v>
+        <v>0.89</v>
       </c>
       <c r="G19" t="b">
         <v>1</v>
       </c>
       <c r="H19">
-        <v>5116</v>
+        <v>3072</v>
       </c>
       <c r="J19" s="1" t="s">
         <v>42</v>
       </c>
       <c r="K19">
-        <v>0.7209302325581395</v>
+        <v>0.7083333333333334</v>
       </c>
       <c r="L19">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="M19">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1447,7 +1444,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1455,13 +1452,13 @@
         <v>43</v>
       </c>
       <c r="K20">
-        <v>0.717948717948718</v>
+        <v>0.6825396825396826</v>
       </c>
       <c r="L20">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="M20">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1473,7 +1470,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>11</v>
+        <v>20</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1481,13 +1478,13 @@
         <v>44</v>
       </c>
       <c r="K21">
-        <v>0.7</v>
+        <v>0.65</v>
       </c>
       <c r="L21">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="M21">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1499,7 +1496,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1507,13 +1504,13 @@
         <v>45</v>
       </c>
       <c r="K22">
-        <v>0.6875</v>
+        <v>0.6411764705882353</v>
       </c>
       <c r="L22">
-        <v>33</v>
+        <v>218</v>
       </c>
       <c r="M22">
-        <v>33</v>
+        <v>218</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1525,7 +1522,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>15</v>
+        <v>122</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1533,13 +1530,13 @@
         <v>46</v>
       </c>
       <c r="K23">
-        <v>0.6441176470588236</v>
+        <v>0.5851063829787234</v>
       </c>
       <c r="L23">
-        <v>219</v>
+        <v>55</v>
       </c>
       <c r="M23">
-        <v>219</v>
+        <v>55</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1551,7 +1548,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>121</v>
+        <v>39</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1559,13 +1556,13 @@
         <v>47</v>
       </c>
       <c r="K24">
-        <v>0.5864406779661017</v>
+        <v>0.5846153846153846</v>
       </c>
       <c r="L24">
-        <v>173</v>
+        <v>38</v>
       </c>
       <c r="M24">
-        <v>173</v>
+        <v>38</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1577,7 +1574,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>122</v>
+        <v>27</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1585,13 +1582,13 @@
         <v>48</v>
       </c>
       <c r="K25">
-        <v>0.5851063829787234</v>
+        <v>0.576271186440678</v>
       </c>
       <c r="L25">
-        <v>55</v>
+        <v>170</v>
       </c>
       <c r="M25">
-        <v>55</v>
+        <v>170</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1603,7 +1600,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>39</v>
+        <v>125</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1611,13 +1608,13 @@
         <v>49</v>
       </c>
       <c r="K26">
-        <v>0.5774058577405857</v>
+        <v>0.5732217573221757</v>
       </c>
       <c r="L26">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="M26">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1629,7 +1626,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -1637,13 +1634,13 @@
         <v>50</v>
       </c>
       <c r="K27">
-        <v>0.5692307692307692</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="L27">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="M27">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1655,7 +1652,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -1689,13 +1686,13 @@
         <v>52</v>
       </c>
       <c r="K29">
-        <v>0.5</v>
+        <v>0.4719101123595505</v>
       </c>
       <c r="L29">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="M29">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1707,7 +1704,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>35</v>
+        <v>47</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -1715,51 +1712,25 @@
         <v>53</v>
       </c>
       <c r="K30">
-        <v>0.449438202247191</v>
+        <v>0.02251876563803169</v>
       </c>
       <c r="L30">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="M30">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="N30">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="O30">
-        <v>0</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P30" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q30">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="31" spans="1:17">
-      <c r="J31" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="K31">
-        <v>0.02168473728106756</v>
-      </c>
-      <c r="L31">
-        <v>26</v>
-      </c>
-      <c r="M31">
-        <v>27</v>
-      </c>
-      <c r="N31">
-        <v>0.96</v>
-      </c>
-      <c r="O31">
-        <v>0.04000000000000004</v>
-      </c>
-      <c r="P31" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q31">
-        <v>1173</v>
+        <v>1172</v>
       </c>
     </row>
   </sheetData>
